--- a/results/mp/deberta/corona/confidence/210/stop-words-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-0.2/avg_0.003_scores.xlsx
@@ -1165,25 +1165,25 @@
         <v>27</v>
       </c>
       <c r="K19">
-        <v>0.6551724137931034</v>
+        <v>0.6359832635983264</v>
       </c>
       <c r="L19">
         <v>152</v>
       </c>
       <c r="M19">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="N19">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1373,25 +1373,25 @@
         <v>35</v>
       </c>
       <c r="K27">
-        <v>0.5457317073170732</v>
+        <v>0.5264705882352941</v>
       </c>
       <c r="L27">
         <v>179</v>
       </c>
       <c r="M27">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="N27">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>149</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="10:17">
